--- a/medicine/Sexualité et sexologie/Herbertstraße/Herbertstraße.xlsx
+++ b/medicine/Sexualité et sexologie/Herbertstraße/Herbertstraße.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herbertstra%C3%9Fe</t>
+          <t>Herbertstraße</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Herbertstrasse (autrefois Heinrichstraße) est une rue de Hambourg connue pour être un lieu de prostitution (aujourd'hui environ 250 femmes) depuis sa construction au début du XIXe siècle. Elle se situe dans le quartier de Sankt Pauli, près de la Reeperbahn.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herbertstra%C3%9Fe</t>
+          <t>Herbertstraße</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a depuis 1933 aux deux extrémités des barrières qui empêchent une vue de l'extérieur. Depuis les années 1970, des panneaux indiquent l'interdiction d'entrer aux mineurs et aux femmes. Ils ont été mis par la police pour maintenir l'ordre public et à la demande des prostituées[1]. Pourtant juridiquement Herbertstraße est une voie publique et doit être ouverte à quiconque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a depuis 1933 aux deux extrémités des barrières qui empêchent une vue de l'extérieur. Depuis les années 1970, des panneaux indiquent l'interdiction d'entrer aux mineurs et aux femmes. Ils ont été mis par la police pour maintenir l'ordre public et à la demande des prostituées. Pourtant juridiquement Herbertstraße est une voie publique et doit être ouverte à quiconque.
 Le nom de la rue n'est pas un hommage à une personne en particulier, mais par un classement des rues par ordre alphabétique.
 Dans les maisons de Herbertstraße, les prostituées sont assises sur des tabourets dans des vitrines, attendent les clients ou s'adressent aux passants par une fenêtre ouverte.
 Pendant le Troisième Reich, la prostitution et le strip-tease sont interdits ; cependant ils sont tolérés dans Herbertstraße. La police dresse les panneaux aux deux extrémités de la rue.
